--- a/dict.xlsx
+++ b/dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guerr\Dropbox\20240501 BID Nowcasting LATAM\ecuador\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BB668E-6FA7-415A-9137-7D6EC79BC31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2ADBF5-CB09-4DA7-BBCA-90408D1CC219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3575,13 +3575,13 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="44.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44.88671875" style="1" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="95.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.109375" style="1" hidden="1" customWidth="1"/>
